--- a/Results/Tables/Table_3.xlsx
+++ b/Results/Tables/Table_3.xlsx
@@ -20,7 +20,7 @@
     <t>INCOME</t>
   </si>
   <si>
-    <t>INCIDENT</t>
+    <t>CASES</t>
   </si>
   <si>
     <t>Rural</t>
